--- a/matlab/logDataProcess/ipb3-42.xlsx
+++ b/matlab/logDataProcess/ipb3-42.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="768" windowWidth="37392" windowHeight="11580"/>
+    <workbookView xWindow="-150" yWindow="195" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-37" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>reactor</t>
   </si>
@@ -94,12 +89,21 @@
   </si>
   <si>
     <t>050217</t>
+  </si>
+  <si>
+    <t>Ipb3-QkCal_H2-5KHz_1500ns_5-5-17day-01.csv</t>
+  </si>
+  <si>
+    <t>050517</t>
+  </si>
+  <si>
+    <t>1500ns to simulation AC or DC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,26 +734,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,23 +769,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -975,29 +945,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1186,6 +1156,100 @@
       </c>
       <c r="O4" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>189</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>189</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-42.xlsx
+++ b/matlab/logDataProcess/ipb3-42.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="195" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="-11685" yWindow="3435" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-37" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>reactor</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>1500ns to simulation AC or DC</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_1500ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_10Khz_2000ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>Ipb3-QkCal_H2-10KHz_2000ns_5-5-17day-01.csv</t>
+  </si>
+  <si>
+    <t>2000ns to simulation AC or DC</t>
+  </si>
+  <si>
+    <t>050617</t>
   </si>
 </sst>
 </file>
@@ -945,32 +966,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -981,43 +1003,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1027,44 +1052,47 @@
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
         <v>0.78</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>189</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1074,44 +1102,47 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.78</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>189</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1121,44 +1152,47 @@
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1">
-        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>13</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.78</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>189</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1168,44 +1202,47 @@
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>13</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.78</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>189</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1215,41 +1252,94 @@
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>19</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.78</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>189</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <v>189</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-42.xlsx
+++ b/matlab/logDataProcess/ipb3-42.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-11685" yWindow="3435" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="1935" yWindow="2250" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-37" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>reactor</t>
   </si>
@@ -67,9 +67,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>qpow 5 steps 200-350(somehow it is very different than 013017 runs)</t>
-  </si>
-  <si>
     <t>Ipb3-H2-temp_500nd_day-01.csv</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>050517</t>
   </si>
   <si>
-    <t>1500ns to simulation AC or DC</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
@@ -115,10 +109,40 @@
     <t>Ipb3-QkCal_H2-10KHz_2000ns_5-5-17day-01.csv</t>
   </si>
   <si>
-    <t>2000ns to simulation AC or DC</t>
-  </si>
-  <si>
     <t>050617</t>
+  </si>
+  <si>
+    <t>050917</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_7Khz_2500ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>051017</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_40v_6000ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>1500ns-low-pass-filter</t>
+  </si>
+  <si>
+    <t>2000ns-low-pass-filter</t>
+  </si>
+  <si>
+    <t>2500ns-low-pass-filter</t>
+  </si>
+  <si>
+    <t>dualnarrowpulse</t>
+  </si>
+  <si>
+    <t>Ipb3-QkCal_H2-10KHz_2000ns_5-8-17day-04.csv</t>
+  </si>
+  <si>
+    <t>6000ns-low-pass-filter-low-volt</t>
+  </si>
+  <si>
+    <t>Ipb3-QkCal_6000_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -966,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1044,19 +1068,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
@@ -1089,24 +1113,24 @@
         <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>11</v>
@@ -1139,24 +1163,24 @@
         <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>13</v>
@@ -1189,24 +1213,24 @@
         <v>16</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>13</v>
@@ -1239,24 +1263,24 @@
         <v>16</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>18</v>
@@ -1289,24 +1313,24 @@
         <v>16</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>20</v>
@@ -1339,7 +1363,107 @@
         <v>16</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>189</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N9" s="1">
+        <v>189</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-42.xlsx
+++ b/matlab/logDataProcess/ipb3-42.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1436,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>

--- a/matlab/logDataProcess/ipb3-42.xlsx
+++ b/matlab/logDataProcess/ipb3-42.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>reactor</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Ipb3-QkCal_6000_day-01.csv</t>
+  </si>
+  <si>
+    <t>Ipb3-QkCal_6000_wolpf_day-01.csv</t>
+  </si>
+  <si>
+    <t>051117</t>
+  </si>
+  <si>
+    <t>6000ns-wo-low-pass-filter-low-volt</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1002,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -1224,22 +1233,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1263,7 +1272,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1274,22 +1283,22 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1313,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1324,19 +1333,19 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1363,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1374,19 +1383,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1413,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1424,19 +1433,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1463,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-42.xlsx
+++ b/matlab/logDataProcess/ipb3-42.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>reactor</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>6000ns-wo-low-pass-filter-low-volt</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1016,16 +1019,17 @@
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,25 +1061,28 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1107,25 +1114,28 @@
         <v>14</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.78</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>189</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,25 +1167,28 @@
         <v>14</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.78</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>189</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1207,25 +1220,28 @@
         <v>14</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.78</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>189</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1257,25 +1273,28 @@
         <v>14</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.78</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>189</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1307,25 +1326,28 @@
         <v>14</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.78</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>189</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1357,25 +1379,28 @@
         <v>14</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.78</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>189</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1407,25 +1432,28 @@
         <v>14</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.78</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>189</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,21 +1485,24 @@
         <v>14</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.78</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>189</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
